--- a/InputData/indst/IEMUEF/Industrial Equipment Minimum Unit Energy Factor.xlsx
+++ b/InputData/indst/IEMUEF/Industrial Equipment Minimum Unit Energy Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\indst\IEMUEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB49EB0-316C-4486-8726-FF133B41DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B38313-9CF9-4FCC-B8FF-B2A4157EB9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="2355" windowWidth="26505" windowHeight="14175" xr2:uid="{910269CE-FD31-46D7-B2D8-8AF36ED85333}"/>
+    <workbookView xWindow="61260" yWindow="1725" windowWidth="24900" windowHeight="14490" activeTab="2" xr2:uid="{910269CE-FD31-46D7-B2D8-8AF36ED85333}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>IEMUEF Industrial Equipment Minimum Unit Energy Factor</t>
+  </si>
+  <si>
+    <t>green hydrogen if</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen if</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E490AE5-9E06-4EDB-8D15-DE332404A026}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E5BCB7-B0F6-4E3B-8F08-5A1471634CD0}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,7 +721,7 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:I11" si="0">C$3</f>
+        <f t="shared" ref="C4:I13" si="0">C$3</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="D4" s="3">
@@ -748,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B11" si="1">B$3</f>
+        <f t="shared" ref="B5:B13" si="1">B$3</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="C5" s="3">
@@ -995,6 +1001,80 @@
         <v>0.9</v>
       </c>
       <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -1009,10 +1089,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1420,6 +1500,80 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7">
+        <f>1/Calcs!B12</f>
+        <v>1.015228426395939</v>
+      </c>
+      <c r="C12" s="7">
+        <f>1/Calcs!C12</f>
+        <v>1.015228426395939</v>
+      </c>
+      <c r="D12" s="7">
+        <f>1/Calcs!D12</f>
+        <v>1.25</v>
+      </c>
+      <c r="E12" s="7">
+        <f>1/Calcs!E12</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F12" s="7">
+        <f>1/Calcs!F12</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G12" s="7">
+        <f>1/Calcs!G12</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H12" s="7">
+        <f>1/Calcs!H12</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I12" s="7">
+        <f>1/Calcs!I12</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7">
+        <f>1/Calcs!B13</f>
+        <v>1.015228426395939</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1/Calcs!C13</f>
+        <v>1.015228426395939</v>
+      </c>
+      <c r="D13" s="7">
+        <f>1/Calcs!D13</f>
+        <v>1.25</v>
+      </c>
+      <c r="E13" s="7">
+        <f>1/Calcs!E13</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F13" s="7">
+        <f>1/Calcs!F13</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G13" s="7">
+        <f>1/Calcs!G13</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H13" s="7">
+        <f>1/Calcs!H13</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="I13" s="7">
+        <f>1/Calcs!I13</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
